--- a/microservices/shared_data/declinedOrders.xlsx
+++ b/microservices/shared_data/declinedOrders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +663,44 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15:05:38</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/declinedOrders.xlsx
+++ b/microservices/shared_data/declinedOrders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +701,78 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>06:01:58</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1112345678</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>06:10:05</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
